--- a/medicine/Médecine vétérinaire/Pierre_Le_Treut/Pierre_Le_Treut.xlsx
+++ b/medicine/Médecine vétérinaire/Pierre_Le_Treut/Pierre_Le_Treut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Le Treut est né à Dol-de-Bretagne, le 21 avril 1929 dans une famille originaire de Locronan, il est décédé le 4 février 2004. Engagé dans la vie politique et culturelle en Bretagne, conseiller régional il fut l'un des fondateurs de l'institut culturel de Bretagne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études secondaires à Rennes puis ses études supérieures à l'École nationale vétérinaire d'Alfort de 1951 à 1954 et à la Faculté de médecine de Paris. Vétérinaire et médecin, il travaille quelque temps à l’Institut Pasteur, puis à son retour de la Guerre d'Algérie, s’installe comme vétérinaire rural à Châteaugiron.
 En 1965, à 35 ans, il s’engage dans la vie publique en devenant maire-adjoint de Châteaugiron aux côtés de Jean Simon. Aux élections municipales de 1971 et de 1977, il se présenta contre celui-ci. Il sera maire après sa victoire de 1977. Il le restera jusqu'en 2001. Conseiller général de 1965 à 1995, conseiller régional en 1974, il devient vice-président délégué en 1983 et est nommé vice-président chargé de la culture en 1986, par Yvon Bourges. Très actif sur tous les terrains de la mise en valeur du patrimoine et du soutien à la création culturelle en Bretagne, il est l'un des cofondateurs de l’Institut culturel de Bretagne, dont il a assuré la présidence de 1986 à 1998. Il a été décoré de l'ordre de l'Hermine en 1996.
